--- a/medicine/Enfance/Préventorium_d'Écouis/Préventorium_d'Écouis.xlsx
+++ b/medicine/Enfance/Préventorium_d'Écouis/Préventorium_d'Écouis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9ventorium_d%27%C3%89couis</t>
+          <t>Préventorium_d'Écouis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Préventorium d'Écouis, situé à Écouis (Eure) est le lieu de transit mis à la disposition de l'Œuvre de secours aux enfants (l'OSE, le 6 juin 1945, par le gouvernement français, où 426 enfants revenant de déportation, les Enfants de Buchenwald vont pouvoir se rétablir des conséquences de la guerre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%A9ventorium_d%27%C3%89couis</t>
+          <t>Préventorium_d'Écouis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 11 avril 1945, l'armée américaine libère le camp de concentration de Buchenwald et découvre parmi les 20 000 détenus rescapés, 1 000 enfants[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 11 avril 1945, l'armée américaine libère le camp de concentration de Buchenwald et découvre parmi les 20 000 détenus rescapés, 1 000 enfants.
 L'Organisation de secours aux enfants entreprend des démarches pour rapatrier une partie de ces enfants en France.
-Le gouvernement provisoire de la République confie à l'OSE 426 de ces jeunes[2],[3],[4],[5],[6],[7],[8],[9].
+Le gouvernement provisoire de la République confie à l'OSE 426 de ces jeunes.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pr%C3%A9ventorium_d%27%C3%89couis</t>
+          <t>Préventorium_d'Écouis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Personnalités passées par Écouis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les enfants :
-Israel Meir Lau (Lulek)[10],[11]Naphtali Lau-Lavie
+Israel Meir Lau (Lulek),Naphtali Lau-Lavie
 Elie Wiesel
 Menashe Klein
 Élie Buzyn
@@ -557,7 +573,7 @@
 Ernest Jouhy
 Rachel Minc
 Eugène Minkowski
-Capitaine Rosen, directeur d'Écouis, ancien du Maquis[12]
+Capitaine Rosen, directeur d'Écouis, ancien du Maquis
 	Enfants de Buchenwald
 			Israël Meir Lau (8 ans) quittant Buchenwald, 11 avril 1945
 			Naphtali Lau-Lavie
